--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
@@ -1264,7 +1264,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="31" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1311,10 +1311,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -1382,10 +1378,55 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1444,12 +1485,6 @@
     <xf numFmtId="1" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1458,45 +1493,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1915,7 +1911,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1929,49 +1925,48 @@
     <col min="6" max="6" width="12.3984375" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
     <col min="8" max="8" width="11.86328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.3984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="30" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.3984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" style="29" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.265625" style="7" customWidth="1"/>
     <col min="13" max="13" width="32.3984375" style="7" customWidth="1"/>
-    <col min="14" max="19" width="11.3984375" style="6"/>
-    <col min="20" max="16384" width="11.3984375" style="7"/>
+    <col min="14" max="18" width="11.3984375" style="6"/>
+    <col min="19" max="16384" width="11.3984375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="24" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:18" s="23" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-    </row>
-    <row r="2" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1981,164 +1976,160 @@
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
       <c r="M2" s="6"/>
     </row>
-    <row r="3" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
       <c r="M4" s="6"/>
     </row>
-    <row r="5" spans="1:19" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="5" spans="1:18" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-    </row>
-    <row r="6" spans="1:19" s="29" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="59" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:18" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-    </row>
-    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="42" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="42" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="47" t="s">
+      <c r="H7" s="54"/>
+      <c r="I7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="35" t="s">
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="13"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="50" t="s">
+      <c r="J8" s="62"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="36"/>
-      <c r="N8" s="13"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
       <c r="I9" s="3" t="s">
         <v>10</v>
       </c>
@@ -2148,11 +2139,10 @@
       <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="L9" s="34"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -2166,570 +2156,540 @@
       <c r="K10" s="11"/>
       <c r="L10" s="9"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="13"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="13"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="13"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="13"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="13"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="13"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="13"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="13"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="13"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="13"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="13"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="13"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="13"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="13"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="13"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="13"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="13"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="13"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="13"/>
-    </row>
-    <row r="45" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="13"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="17"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="17"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="17"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="17"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="17"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="17"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="17"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="17"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="17"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:K8"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="L8:L9"/>
     <mergeCell ref="D2:L2"/>
@@ -2746,12 +2706,6 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:K8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Fwdtracing" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Fwdtracing!$A$1:$M$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Fwdtracing!$A$1:$M$40</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -76,33 +76,6 @@
 Use-by Date</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For questions please contact </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dr. Armin Weiser</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
-    </r>
-  </si>
-  <si>
-    <t>[Company name]</t>
-  </si>
-  <si>
     <t>[Country]</t>
   </si>
   <si>
@@ -124,20 +97,32 @@
     <t>Recipient</t>
   </si>
   <si>
-    <t>[Business Type]</t>
+    <t>[Company]</t>
+  </si>
+  <si>
+    <t>[Type of business]</t>
+  </si>
+  <si>
+    <t>For questions please contact Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -384,23 +369,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,8 +544,14 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1107,34 +1089,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1145,328 +1099,217 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="38" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="32" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1476,23 +1319,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1911,812 +1885,739 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" style="7" customWidth="1"/>
-    <col min="2" max="2" width="28" style="7" customWidth="1"/>
-    <col min="3" max="3" width="9.265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="4.3984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="32.3984375" style="7" customWidth="1"/>
-    <col min="14" max="18" width="11.3984375" style="6"/>
-    <col min="19" max="16384" width="11.3984375" style="7"/>
+    <col min="1" max="1" width="30" style="5" customWidth="1"/>
+    <col min="2" max="2" width="28" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12" style="5" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="65" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.42578125" style="5" customWidth="1"/>
+    <col min="14" max="19" width="11.42578125" style="4"/>
+    <col min="20" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="23" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:19" s="35" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="30"/>
+      <c r="M1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+    </row>
+    <row r="2" spans="1:19" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+    </row>
+    <row r="3" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="31" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="26" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-    </row>
-    <row r="2" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:18" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-    </row>
-    <row r="6" spans="1:18" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-    </row>
-    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="54"/>
-      <c r="G7" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="E9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="33" t="s">
+      <c r="F9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="61" t="s">
+      <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="33" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47"/>
-    </row>
-    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="48"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="M9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="17"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="17"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="17"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="17"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="17"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="17"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="13"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="13"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="13"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="13"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="21"/>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="55"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="60"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="60"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="60"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="60"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="60"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="60"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="60"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="60"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="60"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="60"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="60"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="60"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="60"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="60"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="60"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="60"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="60"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="60"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="56"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="60"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="56"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="60"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="56"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="60"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="60"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="56"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="60"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="60"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="60"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="D2:L2"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="L9:L10"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A7:M7"/>
     <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A5:M5"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="M8:M10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
       <formula1>1</formula1>
       <formula2>31</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J10:J1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J11:J1048576">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:K1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11:K1048576">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
@@ -103,7 +103,7 @@
     <t>[Type of business]</t>
   </si>
   <si>
-    <t>For questions please contact Dr. Armin Weiser, +49 (30) 18412-2118, armin.weiser@bfr.bund.de</t>
+    <t>For questions please contact the FoodRisk-Labs team, +49 (30) 18412-4444, foodrisklabs@bfr.bund.de</t>
   </si>
 </sst>
 </file>
@@ -1248,6 +1248,208 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1257,12 +1459,6 @@
     <xf numFmtId="1" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1271,202 +1467,6 @@
     </xf>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1891,78 +1891,78 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="30" style="5" customWidth="1"/>
     <col min="2" max="2" width="28" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.265625" style="5" customWidth="1"/>
     <col min="4" max="4" width="12" style="5" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="65" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="32.42578125" style="5" customWidth="1"/>
-    <col min="14" max="19" width="11.42578125" style="4"/>
-    <col min="20" max="16384" width="11.42578125" style="5"/>
+    <col min="8" max="8" width="11.86328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="4.3984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="32.3984375" style="5" customWidth="1"/>
+    <col min="14" max="19" width="11.3984375" style="4"/>
+    <col min="20" max="16384" width="11.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="35" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="29" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="29" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="32" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-    </row>
-    <row r="2" spans="1:19" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -1974,150 +1974,150 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
       <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
     </row>
     <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+    </row>
+    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="22" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="56"/>
+      <c r="G8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="56"/>
+      <c r="I8" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="18" t="s">
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="9" t="s">
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2127,466 +2127,465 @@
       <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="39"/>
       <c r="M10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="55"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="60"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="60"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="60"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="59"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="60"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="60"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="60"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="56"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="60"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="60"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="56"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="60"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="60"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="60"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="60"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="60"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="60"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="60"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="60"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="60"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="60"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="60"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="60"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="60"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="56"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="60"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="60"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="56"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="59"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="60"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="60"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="56"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="60"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="56"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="60"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="56"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="60"/>
-    </row>
-    <row r="40" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="64"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="L9:L10"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D4:L4"/>
@@ -2603,10 +2602,11 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">

--- a/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
+++ b/de.bund.bfr.knime.openkrise.db/src/de/bund/bfr/knime/openkrise/db/imports/custom/bfrnewformat/FCL_Uptrace_Start_tob_en.xlsx
@@ -551,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1099,17 +1099,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1229,7 +1218,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="28" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1251,9 +1240,6 @@
     <xf numFmtId="1" fontId="36" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="36" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="37" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1262,10 +1248,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1342,6 +1324,102 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="36" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1371,102 +1449,6 @@
     <xf numFmtId="49" fontId="5" fillId="29" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="33" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -1885,7 +1867,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1901,70 +1883,68 @@
     <col min="6" max="6" width="12.3984375" style="5" customWidth="1"/>
     <col min="7" max="7" width="12" style="5" customWidth="1"/>
     <col min="8" max="8" width="11.86328125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="4.3984375" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.73046875" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.265625" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.73046875" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.265625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.265625" style="5" customWidth="1"/>
     <col min="13" max="13" width="32.3984375" style="5" customWidth="1"/>
-    <col min="14" max="19" width="11.3984375" style="4"/>
-    <col min="20" max="16384" width="11.3984375" style="5"/>
+    <col min="14" max="18" width="11.3984375" style="4"/>
+    <col min="19" max="16384" width="11.3984375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="15.4" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="32" t="s">
+      <c r="D1" s="59"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32" t="s">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="33"/>
+      <c r="L1" s="59"/>
       <c r="M1" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N1" s="7"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="35" t="s">
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-    </row>
-    <row r="3" spans="1:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1974,150 +1954,150 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
+    <row r="4" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
+    <row r="5" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-    </row>
-    <row r="7" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+    </row>
+    <row r="7" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-    </row>
-    <row r="8" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="57" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+    </row>
+    <row r="8" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="55" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="49"/>
+      <c r="G8" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="60" t="s">
+      <c r="H8" s="49"/>
+      <c r="I8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="48" t="s">
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51" t="s">
+    <row r="9" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="38" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="49"/>
-    </row>
-    <row r="10" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="M9" s="42"/>
+    </row>
+    <row r="10" spans="1:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="45"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2127,471 +2107,466 @@
       <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="19"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="24"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="24"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="22"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="24"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="22"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="24"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="22"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="24"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="22"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="24"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="22"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="24"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="22"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="24"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="22"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="24"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="22"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="24"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="24"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="22"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="24"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="22"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="24"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="22"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="24"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="22"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="24"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="24"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="22"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="24"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="24"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="22"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="24"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="22"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="24"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="22"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="24"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="22"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="24"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="22"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="24"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="22"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="24"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="22"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="24"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="22"/>
     </row>
     <row r="40" spans="1:13" ht="13.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="25"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="28"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A2:M2"/>
     <mergeCell ref="M8:M10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -2602,11 +2577,16 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:L10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="3">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I1048576">
